--- a/VTRBFantasyPredictions2019.xlsx
+++ b/VTRBFantasyPredictions2019.xlsx
@@ -381,11 +381,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Todd Gurley</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.2784118652344</v>
+        <v>326.6676635742188</v>
       </c>
     </row>
     <row r="3">
@@ -395,17 +395,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.0734558105469</v>
+        <v>314.5909118652344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Christian McCaffrey</t>
+          <t>Todd Gurley</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3047790527344</v>
+        <v>287.1644897460938</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>247.7926940917969</v>
+        <v>271.8009033203125</v>
       </c>
     </row>
     <row r="6">
@@ -425,47 +425,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.5834197998047</v>
+        <v>245.8141632080078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Melvin Gordon</t>
+          <t>James White</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.9144592285156</v>
+        <v>235.6992950439453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>James Conner</t>
+          <t>Melvin Gordon</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.9847106933594</v>
+        <v>219.3381805419922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>James White</t>
+          <t>Tarik Cohen</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.4474487304688</v>
+        <v>209.0574951171875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Marlon Mack</t>
+          <t>James Conner</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2303161621094</v>
+        <v>207.7403106689453</v>
       </c>
     </row>
     <row r="11">
@@ -475,257 +475,257 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.1082458496094</v>
+        <v>187.5597381591797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Tarik Cohen</t>
+          <t>Marlon Mack</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>160.7793731689453</v>
+        <v>180.5622863769531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Adrian Peterson</t>
+          <t>Kenyan Drake</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.3219909667969</v>
+        <v>175.3121795654297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Chris Carson</t>
+          <t>Tevin Coleman</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>152.1002197265625</v>
+        <v>164.3241882324219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Aaron Jones</t>
+          <t>Chris Carson</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.9469604492188</v>
+        <v>154.6537780761719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Derrick Henry</t>
+          <t>Sony Michel</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.7041931152344</v>
+        <v>147.2987213134766</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sony Michel</t>
+          <t>David Johnson</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.366943359375</v>
+        <v>145.6158142089844</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>David Johnson</t>
+          <t>Nick Chubb</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>141.2196044921875</v>
+        <v>145.0267639160156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Nick Chubb</t>
+          <t>Nyheim Hines</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.4058532714844</v>
+        <v>142.7640533447266</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Tevin Coleman</t>
+          <t>Derrick Henry</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>134.0826568603516</v>
+        <v>140.7930755615234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Kenyan Drake</t>
+          <t>Aaron Jones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.8993377685547</v>
+        <v>138.3462219238281</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mark Ingram</t>
+          <t>Phillip Lindsay</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.6763610839844</v>
+        <v>131.8598480224609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Nyheim Hines</t>
+          <t>Jordan Howard</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>131.4372253417969</v>
+        <v>130.6847381591797</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Phillip Lindsay</t>
+          <t>T.J. Yeldon</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>130.0435180664062</v>
+        <v>130.2172546386719</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Jordan Howard</t>
+          <t>Austin Ekeler</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.9255676269531</v>
+        <v>129.2767028808594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Frank Gore</t>
+          <t>Jalen Richard</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120.4534301757812</v>
+        <v>120.5753021240234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Peyton Barber</t>
+          <t>Matt Breida</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>113.9991607666016</v>
+        <v>118.7059783935547</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lamar Miller</t>
+          <t>Peyton Barber</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.3735656738281</v>
+        <v>116.3999633789062</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Austin Ekeler</t>
+          <t>Mark Ingram</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.8258514404297</v>
+        <v>110.4188690185547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>T.J. Yeldon</t>
+          <t>Adrian Peterson</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.7738952636719</v>
+        <v>108.7980575561523</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Matt Breida</t>
+          <t>Royce Freeman</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.203498840332</v>
+        <v>103.5279541015625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Isaiah Crowell</t>
+          <t>Lamar Miller</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.9274215698242</v>
+        <v>101.5134124755859</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Jalen Richard</t>
+          <t>Josh Adams</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.35401916503906</v>
+        <v>100.2080307006836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Royce Freeman</t>
+          <t>Jaylen Samuels</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.74575805664062</v>
+        <v>96.07888031005859</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Josh Adams</t>
+          <t>Isaiah Crowell</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.17507171630859</v>
+        <v>95.62233734130859</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alfred Morris</t>
+          <t>Frank Gore</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>91.14508056640625</v>
+        <v>95.01943969726562</v>
       </c>
     </row>
     <row r="37">
@@ -735,27 +735,27 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.09375762939453</v>
+        <v>90.69290161132812</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>LeGarrette Blount</t>
+          <t>Rashaad Penny</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.92173767089844</v>
+        <v>88.40157318115234</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Carlos Hyde</t>
+          <t>Alfred Morris</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>85.59022521972656</v>
+        <v>84.78826904296875</v>
       </c>
     </row>
     <row r="40">
@@ -765,217 +765,217 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.72550964355469</v>
+        <v>83.82636260986328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Rashaad Penny</t>
+          <t>Mark Walton</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.70515441894531</v>
+        <v>81.58158874511719</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Doug Martin</t>
+          <t>Duke Johnson</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.23851013183594</v>
+        <v>80.34580993652344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Mark Walton</t>
+          <t>Kalen Ballage</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76.16455078125</v>
+        <v>79.74659729003906</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Jaylen Samuels</t>
+          <t>Giovani Bernard</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.39542388916016</v>
+        <v>74.19390869140625</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Kalen Ballage</t>
+          <t>Carlos Hyde</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>70.96223449707031</v>
+        <v>72.68583679199219</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Giovani Bernard</t>
+          <t>Ito Smith</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.64723205566406</v>
+        <v>72.50062561035156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ito Smith</t>
+          <t>Theo Riddick</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>69.91326141357422</v>
+        <v>70.73842620849609</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>LeSean McCoy</t>
+          <t>Dion Lewis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>68.55825805664062</v>
+        <v>70.68809509277344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Theo Riddick</t>
+          <t>Malcolm Brown</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>64.65969085693359</v>
+        <v>66.24733734130859</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Chris Ivory</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>64.02046966552734</v>
+        <v>66.21885681152344</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Wendell Smallwood</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>62.78483200073242</v>
+        <v>64.56007385253906</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Latavius Murray</t>
+          <t>Kapri Bibbs</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>62.74638748168945</v>
+        <v>64.15363311767578</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Dion Lewis</t>
+          <t>LeSean McCoy</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>62.1768684387207</v>
+        <v>63.93508911132812</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Kapri Bibbs</t>
+          <t>Chris Ivory</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>59.5924186706543</v>
+        <v>61.7546501159668</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Duke Johnson</t>
+          <t>Ricky Ortiz</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>58.32146072387695</v>
+        <v>61.23117828369141</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Wendell Smallwood</t>
+          <t>LeGarrette Blount</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>55.68456649780273</v>
+        <v>59.26346969604492</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Malcolm Brown</t>
+          <t>Doug Martin</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>53.51556396484375</v>
+        <v>58.90374755859375</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Jordan Wilkins</t>
+          <t>Dwayne Washington</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>52.10774612426758</v>
+        <v>56.10916900634766</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Alfred Blue</t>
+          <t>Jordan Wilkins</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>48.3644905090332</v>
+        <v>52.84276580810547</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Ricky Ortiz</t>
+          <t>Mike Davis</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>47.00282287597656</v>
+        <v>47.3123893737793</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Mike Davis</t>
+          <t>Trenton Cannon</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>46.82168960571289</v>
+        <v>45.87187576293945</v>
       </c>
     </row>
     <row r="62">
@@ -985,37 +985,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>45.6710205078125</v>
+        <v>45.5216178894043</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Trenton Cannon</t>
+          <t>Alfred Blue</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>45.66900253295898</v>
+        <v>44.52776336669922</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Dwayne Washington</t>
+          <t>Spencer Ware</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>44.71754837036133</v>
+        <v>44.51712799072266</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Spencer Ware</t>
+          <t>Latavius Murray</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>40.10987854003906</v>
+        <v>44.17362594604492</v>
       </c>
     </row>
     <row r="66">
@@ -1025,27 +1025,27 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>37.86729049682617</v>
+        <v>39.99423980712891</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Alex Armah</t>
+          <t>Javorius Allen</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>30.90424346923828</v>
+        <v>36.83214950561523</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Javorius Allen</t>
+          <t>Alex Armah</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>30.56672668457031</v>
+        <v>33.52699279785156</v>
       </c>
     </row>
     <row r="69">
@@ -1055,37 +1055,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>29.63129043579102</v>
+        <v>32.97553634643555</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>James Develin</t>
+          <t>Damien Williams</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24.82564163208008</v>
+        <v>30.7219181060791</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Rod Smith</t>
+          <t>Tre Madden</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23.59124374389648</v>
+        <v>26.82868003845215</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Damien Williams</t>
+          <t>Elijhaa Penny</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22.05143165588379</v>
+        <v>26.81137466430664</v>
       </c>
     </row>
     <row r="73">
@@ -1095,177 +1095,177 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>19.2766170501709</v>
+        <v>26.28579330444336</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Derek Watt</t>
+          <t>Nick Bellore</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>18.70395851135254</v>
+        <v>24.92281913757324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Elijhaa Penny</t>
+          <t>Rod Smith</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17.83432579040527</v>
+        <v>24.10323715209961</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Tre Madden</t>
+          <t>Derek Watt</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17.24956130981445</v>
+        <v>22.06514358520508</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Keith Smith</t>
+          <t>C.J. Ham</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>16.5855712890625</v>
+        <v>21.51785659790039</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Jamize Olawale</t>
+          <t>James Develin</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>16.18001174926758</v>
+        <v>21.40825843811035</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Roosevelt Nix</t>
+          <t>Andy Janovich</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>16.17887496948242</v>
+        <v>20.75981903076172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>C.J. Ham</t>
+          <t>Keith Smith</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>15.9512767791748</v>
+        <v>20.7597599029541</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Derrick Coleman</t>
+          <t>Roosevelt Nix</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15.04795932769775</v>
+        <v>20.52054214477539</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Patrick DiMarco</t>
+          <t>Jamize Olawale</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>14.43697261810303</v>
+        <v>19.79368209838867</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Brandon Bolden</t>
+          <t>Benny Cunningham</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>14.20101451873779</v>
+        <v>19.50868606567383</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Tommy Bohanon</t>
+          <t>Zach Line</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>13.66738033294678</v>
+        <v>19.26176452636719</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Andy Janovich</t>
+          <t>Derrick Coleman</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13.40228843688965</v>
+        <v>18.64663696289062</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Nick Bellore</t>
+          <t>Patrick DiMarco</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13.23680591583252</v>
+        <v>18.5976390838623</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Bradley Sowell</t>
+          <t>Tommy Bohanon</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11.83902645111084</v>
+        <v>17.55894470214844</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Anthony Sherman</t>
+          <t>Bradley Sowell</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11.58207225799561</v>
+        <v>17.30731582641602</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Benny Cunningham</t>
+          <t>Anthony Sherman</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10.86745548248291</v>
+        <v>16.78207969665527</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Zach Line</t>
+          <t>Brandon Bolden</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9.162405967712402</v>
+        <v>16.43868637084961</v>
       </c>
     </row>
   </sheetData>
